--- a/ProjectTest/ProjectTest/wwwroot/UploadFile/Danh sách email.xlsx
+++ b/ProjectTest/ProjectTest/wwwroot/UploadFile/Danh sách email.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haicu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F296DC70-8145-43E9-8D56-0D96765B2340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22755" yWindow="6015" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="2025" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Danh sách email</t>
   </si>
@@ -42,34 +41,22 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>mrfixhotro@gmail.com</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>mrfishhotro666999@gmail.com</t>
-  </si>
-  <si>
-    <t>admin888@gmail.com</t>
-  </si>
-  <si>
-    <t>admin22323233@gmail.com</t>
+    <t>cc1@gmail.com</t>
+  </si>
+  <si>
+    <t>user2@gmail.com</t>
+  </si>
+  <si>
+    <t>cc2@gmail.com</t>
+  </si>
+  <si>
+    <t>mrfix1407@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,7 +126,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -147,28 +136,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Siêu kết nối" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -445,114 +440,107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="68.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="69.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="68.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="69.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.26953125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7265625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.7265625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="35.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="35.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="39" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.81640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.1796875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7265625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.26953125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="28.26953125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.453125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="22.26953125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="21.26953125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.453125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.1796875" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.1796875" style="1"/>
+    <col min="11" max="11" width="32.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="28.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="22.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="21.28515625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:19" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:19" s="2" customFormat="1" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:19" s="4" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="5" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:S1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{4591A25A-520A-4020-9CBA-2771E6F72297}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{C7C1ADFB-549A-4967-B5C2-0AB5E6E14638}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{9DCECC5B-4B3F-460B-8F31-6FDE57184224}"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
